--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Flt4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +531,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.36094259176819</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H2">
-        <v>3.36094259176819</v>
+        <v>10.203518</v>
       </c>
       <c r="I2">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J2">
-        <v>0.5122625606218942</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.5362071199291</v>
+        <v>18.398001</v>
       </c>
       <c r="N2">
-        <v>17.5362071199291</v>
+        <v>55.194003</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9859575987166009</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.985957598716601</v>
       </c>
       <c r="Q2">
-        <v>58.9381854074383</v>
+        <v>62.574778122506</v>
       </c>
       <c r="R2">
-        <v>58.9381854074383</v>
+        <v>563.1730031025539</v>
       </c>
       <c r="S2">
-        <v>0.5122625606218942</v>
+        <v>0.5030038075265412</v>
       </c>
       <c r="T2">
-        <v>0.5122625606218942</v>
+        <v>0.5030038075265411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.53711574538192</v>
+        <v>3.401172666666667</v>
       </c>
       <c r="H3">
-        <v>2.53711574538192</v>
+        <v>10.203518</v>
       </c>
       <c r="I3">
-        <v>0.3866978899034729</v>
+        <v>0.5101677883321656</v>
       </c>
       <c r="J3">
-        <v>0.3866978899034729</v>
+        <v>0.5101677883321655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>17.5362071199291</v>
+        <v>0.1099223333333333</v>
       </c>
       <c r="N3">
-        <v>17.5362071199291</v>
+        <v>0.329767</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.005890789973250851</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.005890789973250851</v>
       </c>
       <c r="Q3">
-        <v>44.49138719825065</v>
+        <v>0.3738648355895556</v>
       </c>
       <c r="R3">
-        <v>44.49138719825065</v>
+        <v>3.364783520306</v>
       </c>
       <c r="S3">
-        <v>0.3866978899034729</v>
+        <v>0.003005291292182684</v>
       </c>
       <c r="T3">
-        <v>0.3866978899034729</v>
+        <v>0.003005291292182683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,613 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.401172666666667</v>
+      </c>
+      <c r="H4">
+        <v>10.203518</v>
+      </c>
+      <c r="I4">
+        <v>0.5101677883321656</v>
+      </c>
+      <c r="J4">
+        <v>0.5101677883321655</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.06431633333333332</v>
+      </c>
+      <c r="N4">
+        <v>0.192949</v>
+      </c>
+      <c r="O4">
+        <v>0.003446742804916132</v>
+      </c>
+      <c r="P4">
+        <v>0.003446742804916133</v>
+      </c>
+      <c r="Q4">
+        <v>0.2187509549535555</v>
+      </c>
+      <c r="R4">
+        <v>1.968758594582</v>
+      </c>
+      <c r="S4">
+        <v>0.001758417153733868</v>
+      </c>
+      <c r="T4">
+        <v>0.001758417153733868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.662918103696858</v>
-      </c>
-      <c r="H4">
-        <v>0.662918103696858</v>
-      </c>
-      <c r="I4">
-        <v>0.1010395494746329</v>
-      </c>
-      <c r="J4">
-        <v>0.1010395494746329</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>17.5362071199291</v>
-      </c>
-      <c r="N4">
-        <v>17.5362071199291</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>11.62506916997874</v>
-      </c>
-      <c r="R4">
-        <v>11.62506916997874</v>
-      </c>
-      <c r="S4">
-        <v>0.1010395494746329</v>
-      </c>
-      <c r="T4">
-        <v>0.1010395494746329</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.401172666666667</v>
+      </c>
+      <c r="H5">
+        <v>10.203518</v>
+      </c>
+      <c r="I5">
+        <v>0.5101677883321656</v>
+      </c>
+      <c r="J5">
+        <v>0.5101677883321655</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.087793</v>
+      </c>
+      <c r="N5">
+        <v>0.263379</v>
+      </c>
+      <c r="O5">
+        <v>0.004704868505231984</v>
+      </c>
+      <c r="P5">
+        <v>0.004704868505231985</v>
+      </c>
+      <c r="Q5">
+        <v>0.2985991519246667</v>
+      </c>
+      <c r="R5">
+        <v>2.687392367322</v>
+      </c>
+      <c r="S5">
+        <v>0.002400272359707863</v>
+      </c>
+      <c r="T5">
+        <v>0.002400272359707863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.579868</v>
+      </c>
+      <c r="H6">
+        <v>7.739604</v>
+      </c>
+      <c r="I6">
+        <v>0.3869740471126509</v>
+      </c>
+      <c r="J6">
+        <v>0.3869740471126508</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>18.398001</v>
+      </c>
+      <c r="N6">
+        <v>55.194003</v>
+      </c>
+      <c r="O6">
+        <v>0.9859575987166009</v>
+      </c>
+      <c r="P6">
+        <v>0.985957598716601</v>
+      </c>
+      <c r="Q6">
+        <v>47.46441404386799</v>
+      </c>
+      <c r="R6">
+        <v>427.179726394812</v>
+      </c>
+      <c r="S6">
+        <v>0.381540002256834</v>
+      </c>
+      <c r="T6">
+        <v>0.381540002256834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.579868</v>
+      </c>
+      <c r="H7">
+        <v>7.739604</v>
+      </c>
+      <c r="I7">
+        <v>0.3869740471126509</v>
+      </c>
+      <c r="J7">
+        <v>0.3869740471126508</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1099223333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.329767</v>
+      </c>
+      <c r="O7">
+        <v>0.005890789973250851</v>
+      </c>
+      <c r="P7">
+        <v>0.005890789973250851</v>
+      </c>
+      <c r="Q7">
+        <v>0.283585110252</v>
+      </c>
+      <c r="R7">
+        <v>2.552265992268</v>
+      </c>
+      <c r="S7">
+        <v>0.002279582836639506</v>
+      </c>
+      <c r="T7">
+        <v>0.002279582836639506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.579868</v>
+      </c>
+      <c r="H8">
+        <v>7.739604</v>
+      </c>
+      <c r="I8">
+        <v>0.3869740471126509</v>
+      </c>
+      <c r="J8">
+        <v>0.3869740471126508</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06431633333333332</v>
+      </c>
+      <c r="N8">
+        <v>0.192949</v>
+      </c>
+      <c r="O8">
+        <v>0.003446742804916132</v>
+      </c>
+      <c r="P8">
+        <v>0.003446742804916133</v>
+      </c>
+      <c r="Q8">
+        <v>0.165927650244</v>
+      </c>
+      <c r="R8">
+        <v>1.493348852196</v>
+      </c>
+      <c r="S8">
+        <v>0.001333800012574806</v>
+      </c>
+      <c r="T8">
+        <v>0.001333800012574806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.579868</v>
+      </c>
+      <c r="H9">
+        <v>7.739604</v>
+      </c>
+      <c r="I9">
+        <v>0.3869740471126509</v>
+      </c>
+      <c r="J9">
+        <v>0.3869740471126508</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.087793</v>
+      </c>
+      <c r="N9">
+        <v>0.263379</v>
+      </c>
+      <c r="O9">
+        <v>0.004704868505231984</v>
+      </c>
+      <c r="P9">
+        <v>0.004704868505231985</v>
+      </c>
+      <c r="Q9">
+        <v>0.226494351324</v>
+      </c>
+      <c r="R9">
+        <v>2.038449161916</v>
+      </c>
+      <c r="S9">
+        <v>0.001820662006602469</v>
+      </c>
+      <c r="T9">
+        <v>0.001820662006602469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6857320000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.057196</v>
+      </c>
+      <c r="I10">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="J10">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.398001</v>
+      </c>
+      <c r="N10">
+        <v>55.194003</v>
+      </c>
+      <c r="O10">
+        <v>0.9859575987166009</v>
+      </c>
+      <c r="P10">
+        <v>0.985957598716601</v>
+      </c>
+      <c r="Q10">
+        <v>12.616098021732</v>
+      </c>
+      <c r="R10">
+        <v>113.544882195588</v>
+      </c>
+      <c r="S10">
+        <v>0.1014137889332258</v>
+      </c>
+      <c r="T10">
+        <v>0.1014137889332258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6857320000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.057196</v>
+      </c>
+      <c r="I11">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="J11">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1099223333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.329767</v>
+      </c>
+      <c r="O11">
+        <v>0.005890789973250851</v>
+      </c>
+      <c r="P11">
+        <v>0.005890789973250851</v>
+      </c>
+      <c r="Q11">
+        <v>0.07537726148133335</v>
+      </c>
+      <c r="R11">
+        <v>0.6783953533320001</v>
+      </c>
+      <c r="S11">
+        <v>0.0006059158444286616</v>
+      </c>
+      <c r="T11">
+        <v>0.0006059158444286615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6857320000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.057196</v>
+      </c>
+      <c r="I12">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="J12">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06431633333333332</v>
+      </c>
+      <c r="N12">
+        <v>0.192949</v>
+      </c>
+      <c r="O12">
+        <v>0.003446742804916132</v>
+      </c>
+      <c r="P12">
+        <v>0.003446742804916133</v>
+      </c>
+      <c r="Q12">
+        <v>0.04410376788933333</v>
+      </c>
+      <c r="R12">
+        <v>0.396933911004</v>
+      </c>
+      <c r="S12">
+        <v>0.0003545256386074586</v>
+      </c>
+      <c r="T12">
+        <v>0.0003545256386074586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6857320000000001</v>
+      </c>
+      <c r="H13">
+        <v>2.057196</v>
+      </c>
+      <c r="I13">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="J13">
+        <v>0.1028581645551836</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.087793</v>
+      </c>
+      <c r="N13">
+        <v>0.263379</v>
+      </c>
+      <c r="O13">
+        <v>0.004704868505231984</v>
+      </c>
+      <c r="P13">
+        <v>0.004704868505231985</v>
+      </c>
+      <c r="Q13">
+        <v>0.060202469476</v>
+      </c>
+      <c r="R13">
+        <v>0.541822225284</v>
+      </c>
+      <c r="S13">
+        <v>0.0004839341389216521</v>
+      </c>
+      <c r="T13">
+        <v>0.000483934138921652</v>
       </c>
     </row>
   </sheetData>
